--- a/ステージ関連/ステージ説明_Tutorial.xlsx
+++ b/ステージ関連/ステージ説明_Tutorial.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
   <si>
     <t>白－－移動可能のブロック</t>
     <rPh sb="0" eb="1">
@@ -464,10 +464,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>トリガー６</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>1. 特定の区域に入る。（例はトリガー１）</t>
     <rPh sb="3" eb="5">
       <t>トクテイ</t>
@@ -540,22 +536,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>このトリガーに入った時、 「Tutorial_Basis1.png」と「Tutorial_Basis2.png」と「Tutorial_CamouFlage.png」を順々に表示します。</t>
-    <rPh sb="7" eb="8">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ジュンジュン</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>このトリガーに入った時、 「Tutorial_FeintMouse.png」を表示します。</t>
     <rPh sb="7" eb="8">
       <t>ハイ</t>
@@ -647,6 +627,43 @@
     <rPh sb="52" eb="53">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>このトリガーに入った時、 「Tutorial_Basis1.png」と「Tutorial_Basis2.png」を順々に表示します。</t>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジュンジュン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>このトリガーに入った時、 「Tutorial_CamouFlage.png」を表示します。</t>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>トリガー6</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>トリガー7</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -999,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1040,15 +1057,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1078,6 +1086,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1691,13 +1712,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>20628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>239488</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>149080</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1713,7 +1734,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="844063" y="15958151"/>
+          <a:off x="844063" y="16872551"/>
           <a:ext cx="3897087" cy="2185852"/>
           <a:chOff x="903515" y="12294271"/>
           <a:chExt cx="3918858" cy="2185852"/>
@@ -1806,13 +1827,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>195944</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>118600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>18452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1850,13 +1871,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>277586</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1911,13 +1932,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>125184</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>97973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>92528</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>59872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1982,13 +2003,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>185055</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>103416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>65315</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2053,13 +2074,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>277587</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>141516</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>108859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2739,109 +2760,104 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>181705</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>5862</xdr:rowOff>
+      <xdr:colOff>275491</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>111369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>19213</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>199292</xdr:rowOff>
+      <xdr:colOff>9545</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EA9569-A17E-4660-AB57-7730EFC0E381}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8DB3DF-81D4-44A8-9D04-1E87A3669D15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="744413" y="8856785"/>
-          <a:ext cx="5183231" cy="2936630"/>
-          <a:chOff x="767859" y="8481647"/>
-          <a:chExt cx="5183231" cy="2936630"/>
+          <a:off x="838199" y="8505092"/>
+          <a:ext cx="5079777" cy="2878016"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC83D988-E35D-42C2-89F2-D32FEC273963}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="767859" y="8481647"/>
-            <a:ext cx="5183231" cy="2936630"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="図 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4435EE-EE94-4DD9-9EEF-1A1605204D7A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3071446" y="10771829"/>
-            <a:ext cx="545124" cy="145196"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274403</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>100322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10634</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>26286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F019698D-60D3-4F74-8390-DCCA8D5C16D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3087941" y="10780045"/>
+          <a:ext cx="580293" cy="154564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4486,77 +4502,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC82"/>
+  <dimension ref="A1:AC86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE64" sqref="AE64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
     </row>
     <row r="4" spans="1:29">
       <c r="C4" s="25" t="s">
@@ -4599,8 +4615,8 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="35">
-        <v>6</v>
+      <c r="M6" s="32">
+        <v>7</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>8</v>
@@ -4618,23 +4634,23 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="37"/>
+      <c r="M7" s="34"/>
       <c r="N7" s="4"/>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
     </row>
     <row r="8" spans="1:29" ht="19.2" thickTop="1" thickBot="1">
       <c r="D8">
         <v>8</v>
       </c>
-      <c r="E8" s="33">
-        <v>5</v>
-      </c>
-      <c r="F8" s="34"/>
+      <c r="E8" s="30">
+        <v>6</v>
+      </c>
+      <c r="F8" s="31"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4655,12 +4671,12 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="2"/>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
     </row>
     <row r="10" spans="1:29" ht="19.2" thickTop="1" thickBot="1">
       <c r="D10">
@@ -4680,10 +4696,10 @@
       <c r="I11" s="17"/>
       <c r="K11" s="8"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="39">
-        <v>3</v>
-      </c>
-      <c r="N11" s="40"/>
+      <c r="M11" s="36">
+        <v>4</v>
+      </c>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:29" ht="19.2" thickTop="1" thickBot="1">
       <c r="D12">
@@ -4695,7 +4711,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="21"/>
@@ -4703,7 +4719,7 @@
         <v>26</v>
       </c>
       <c r="N12" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="19.2" thickTop="1" thickBot="1">
@@ -4712,8 +4728,8 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="1"/>
-      <c r="H13" s="35">
-        <v>1</v>
+      <c r="H13" s="32">
+        <v>2</v>
       </c>
       <c r="I13" s="12">
         <v>1</v>
@@ -4731,7 +4747,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="2"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="36"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="1"/>
       <c r="J14" s="17"/>
       <c r="K14" s="1"/>
@@ -4743,11 +4759,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>9</v>
+      <c r="E15" s="40">
+        <v>1</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="H15" s="37"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="20">
         <v>5</v>
       </c>
@@ -4794,287 +4810,332 @@
     </row>
     <row r="18" spans="4:26">
       <c r="D18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="20" spans="4:26">
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
     </row>
     <row r="21" spans="4:26">
       <c r="D21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="4:26">
       <c r="D22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="4:26">
       <c r="D23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="4:26">
       <c r="W30" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26">
+      <c r="D35" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
     </row>
     <row r="36" spans="4:26">
-      <c r="D36" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="4:26">
       <c r="D37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="4:26">
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="4:26">
+      <c r="D50" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
     </row>
     <row r="51" spans="4:26">
-      <c r="D51" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="52" spans="4:26">
       <c r="D52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="4:26">
-      <c r="D53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="4:26">
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
     </row>
     <row r="56" spans="4:26">
       <c r="D56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="4:26">
       <c r="D57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="4:26">
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38"/>
     </row>
     <row r="60" spans="4:26">
       <c r="D60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="4:26">
       <c r="D61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="4:26">
-      <c r="D63" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
+      <c r="D63" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
     </row>
     <row r="64" spans="4:26">
       <c r="D64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="3:26">
       <c r="D65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="3:26">
-      <c r="C67" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="25"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
+      <c r="D67" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="38"/>
+    </row>
+    <row r="68" spans="3:26">
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="69" spans="3:26">
       <c r="D69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="3:26">
+      <c r="C71" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+    </row>
+    <row r="73" spans="3:26">
+      <c r="D73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="4:4">
-      <c r="D81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" t="s">
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="C71:Z71"/>
+    <mergeCell ref="D20:Z20"/>
+    <mergeCell ref="D50:Z50"/>
+    <mergeCell ref="D55:Z55"/>
+    <mergeCell ref="D59:Z59"/>
+    <mergeCell ref="D63:Z63"/>
+    <mergeCell ref="D67:Z67"/>
+    <mergeCell ref="D35:Z35"/>
     <mergeCell ref="A1:AC2"/>
     <mergeCell ref="C4:Z4"/>
     <mergeCell ref="T7:W7"/>
@@ -5083,13 +5144,6 @@
     <mergeCell ref="T9:W9"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="C67:Z67"/>
-    <mergeCell ref="D20:Z20"/>
-    <mergeCell ref="D36:Z36"/>
-    <mergeCell ref="D51:Z51"/>
-    <mergeCell ref="D55:Z55"/>
-    <mergeCell ref="D59:Z59"/>
-    <mergeCell ref="D63:Z63"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
